--- a/genshin/526415252209170094_2021-05-19_14-00-02.xlsx
+++ b/genshin/526415252209170094_2021-05-19_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4624444427</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-26 16:13:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44342.6762037037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4620620384</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-25 19:44:03</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44341.82225694445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4620136051</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-25 19:24:27</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44341.80864583333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>4620136051</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-25 18:09:54</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44341.756875</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4619271620</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-05-25 17:22:49</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44341.72417824074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>4619271620</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-25 14:34:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44341.60701388889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>4619271620</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-25 14:32:04</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44341.60560185185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1064,10 +1066,8 @@
           <t>4619271620</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-05-25 14:03:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44341.58561342592</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1143,10 +1143,8 @@
           <t>4618234520</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-05-25 09:43:51</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44341.40545138889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1218,10 +1216,8 @@
           <t>4618234520</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-05-25 09:17:24</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44341.38708333333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1299,10 +1295,8 @@
           <t>4615916813</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-05-24 19:34:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44340.8158912037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1362,10 +1356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-05-23 19:51:35</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44339.82748842592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1441,10 +1433,8 @@
           <t>4610718222</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-05-23 18:47:59</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44339.78332175926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1509,10 +1499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-05-23 14:00:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44339.58344907407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1588,10 +1576,8 @@
           <t>4609073899</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-05-23 13:03:51</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44339.54434027777</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1651,10 +1637,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-05-22 18:57:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44338.79010416667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1726,10 +1710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-05-22 15:54:37</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44338.66292824074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1793,10 +1775,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-05-22 13:40:41</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44338.56991898148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1868,10 +1848,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-05-22 13:09:29</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44338.54825231482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1943,10 +1921,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-05-22 13:07:19</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44338.54674768518</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2018,10 +1994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-05-22 12:38:18</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44338.52659722222</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2085,10 +2059,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-05-22 10:43:36</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44338.44694444445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2164,10 +2136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-05-22 10:36:19</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44338.44188657407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2231,10 +2201,8 @@
           <t>4601296329</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-05-22 01:09:55</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44338.04855324074</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2298,10 +2266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-05-21 23:54:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44337.99644675926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2365,10 +2331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-05-21 21:50:53</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44337.91033564815</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2428,10 +2392,8 @@
           <t>4599347480</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-05-21 19:02:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44337.79364583334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2495,10 +2457,8 @@
           <t>4598616939</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-05-21 16:33:56</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44337.69023148148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2562,10 +2522,8 @@
           <t>4597777015</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-05-21 12:48:59</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44337.5340162037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2641,10 +2599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-05-21 12:14:04</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44337.50976851852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2708,10 +2664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-05-21 12:13:43</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44337.50952546296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2775,10 +2729,8 @@
           <t>4588320308</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-05-21 11:38:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44337.48487268519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2846,10 +2798,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-05-21 11:21:33</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44337.47329861111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2917,10 +2867,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-05-21 09:00:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44337.37540509259</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2988,10 +2936,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-05-21 01:13:00</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44337.05069444444</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3059,10 +3005,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-05-20 23:48:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44336.9921875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3131,10 +3075,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-05-20 23:36:38</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44336.98377314815</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3198,10 +3140,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-05-20 23:06:58</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44336.96317129629</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3273,10 +3213,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-05-20 22:58:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44336.95738425926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3346,10 +3284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-05-20 22:14:51</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44336.92697916667</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3421,10 +3357,8 @@
           <t>4595207747</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-05-20 22:00:38</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44336.91710648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3492,10 +3426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-05-20 21:55:30</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44336.91354166667</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3571,10 +3503,8 @@
           <t>4595174653</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-05-20 21:55:04</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44336.91324074074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3650,10 +3580,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-05-20 21:09:34</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44336.88164351852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3721,10 +3649,8 @@
           <t>4594560017</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-05-20 20:08:08</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44336.83898148148</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3800,10 +3726,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-05-20 20:04:17</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44336.83630787037</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3875,10 +3799,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-05-20 19:45:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44336.82324074074</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3946,10 +3868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-05-20 19:42:48</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44336.82138888889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4013,10 +3933,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-05-20 19:25:40</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44336.80949074074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4084,10 +4002,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-05-20 18:11:27</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44336.75795138889</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4159,10 +4075,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-05-20 16:29:05</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44336.68686342592</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4238,10 +4152,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-05-20 16:27:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44336.68545138889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4317,10 +4229,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-05-20 16:20:03</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44336.68059027778</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4388,10 +4298,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-05-20 15:30:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44336.64606481481</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4488,10 +4396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:58:50</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44336.62418981481</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4555,10 +4461,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:23:04</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44336.59935185185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4634,10 +4538,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:20:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44336.59775462963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4713,10 +4615,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:19:04</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44336.59657407407</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4792,10 +4692,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:18:13</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44336.59598379629</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4871,10 +4769,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:14:10</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44336.5931712963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4950,10 +4846,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-05-20 14:11:00</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44336.59097222222</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5029,10 +4923,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-05-20 13:37:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44336.56771990741</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5108,10 +5000,8 @@
           <t>4588214323</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-05-20 13:31:29</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44336.56353009259</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5175,10 +5065,8 @@
           <t>4588415768</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-05-20 13:30:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44336.56258101852</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5242,10 +5130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-05-20 13:06:01</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44336.54584490741</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5317,10 +5203,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-05-20 13:03:23</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44336.5440162037</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5380,10 +5264,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:47:13</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44336.53278935186</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5447,10 +5329,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:35:10</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44336.52442129629</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5514,10 +5394,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:33:53</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44336.52353009259</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5589,10 +5467,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:25:14</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44336.51752314815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5656,10 +5532,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:23:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44336.51640046296</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5735,10 +5609,8 @@
           <t>4592499293</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:22:01</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44336.51528935185</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5806,10 +5678,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:21:01</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44336.51459490741</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5877,10 +5747,8 @@
           <t>4588108322</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:14:50</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44336.51030092593</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5960,10 +5828,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:07:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44336.50515046297</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6039,10 +5905,8 @@
           <t>4590231859</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-05-20 12:02:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44336.50172453704</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6114,10 +5978,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-05-20 11:57:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44336.49809027778</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6193,10 +6055,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-05-20 11:53:38</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44336.4955787037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6272,10 +6132,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-05-20 11:52:47</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44336.49498842593</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6351,10 +6209,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-05-20 11:51:23</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44336.4940162037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6430,10 +6286,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-05-20 10:11:33</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44336.4246875</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6501,10 +6355,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-05-20 10:10:33</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44336.42399305556</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6572,10 +6424,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-05-20 10:03:24</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44336.41902777777</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6639,10 +6489,8 @@
           <t>4591814479</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-05-20 09:16:42</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44336.38659722222</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6718,10 +6566,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-05-20 09:13:06</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44336.38409722222</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6789,10 +6635,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-05-20 09:00:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44336.37542824074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6860,10 +6704,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-05-20 08:59:20</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44336.37453703704</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6931,10 +6773,8 @@
           <t>4591680093</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-05-20 08:20:41</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44336.34769675926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6994,10 +6834,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-05-20 08:06:05</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44336.33755787037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7061,10 +6899,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:59:27</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44336.33295138889</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7132,10 +6968,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:56:59</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44336.33123842593</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7203,10 +7037,8 @@
           <t>4591613829</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:55:49</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44336.33042824074</v>
       </c>
       <c r="I93" t="n">
         <v>9</v>
@@ -7282,10 +7114,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:53:34</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44336.32886574074</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7361,10 +7191,8 @@
           <t>4590862111</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:26:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44336.30990740741</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7432,10 +7260,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:23:11</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44336.3077662037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7503,10 +7329,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-05-20 07:13:52</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44336.3012962963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7574,10 +7398,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-05-20 06:52:20</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44336.28634259259</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7641,10 +7463,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-05-20 06:51:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44336.28578703704</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7712,10 +7532,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:26:35</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44336.06012731481</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7783,10 +7601,8 @@
           <t>4588415768</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:22:49</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44336.05751157407</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7859,10 +7675,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:19:59</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44336.05554398148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7930,10 +7744,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:17:59</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44336.05415509259</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8001,10 +7813,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:12:01</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44336.05001157407</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8072,10 +7882,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:06:48</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44336.04638888889</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8144,10 +7952,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:04:06</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44336.04451388889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8216,10 +8022,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:01:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44336.04298611111</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8295,10 +8099,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-05-20 01:01:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44336.04278935185</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8362,10 +8164,8 @@
           <t>4591114631</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:57:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44336.04016203704</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8430,10 +8230,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:55:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44336.03877314815</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8501,10 +8299,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:55:17</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44336.03839120371</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8574,10 +8370,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:54:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44336.03807870371</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8654,10 +8448,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:52:41</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44336.03658564815</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8733,10 +8525,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:49:52</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44336.03462962963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8804,10 +8594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:43:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44336.02989583334</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8882,10 +8670,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:39:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44336.02708333333</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -8953,10 +8739,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:19:41</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44336.01366898148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9020,10 +8804,8 @@
           <t>4590771251</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:18:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44336.01290509259</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9099,10 +8881,8 @@
           <t>4590944881</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:14:35</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44336.01012731482</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9174,10 +8954,8 @@
           <t>4590936659</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:12:29</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44336.00866898148</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9245,10 +9023,8 @@
           <t>4588900999</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:08:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44336.00616898148</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9316,10 +9092,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-05-20 00:07:15</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44336.00503472222</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9387,10 +9161,8 @@
           <t>4590862111</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:57:07</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44335.99799768518</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9454,10 +9226,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:46:37</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44335.99070601852</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9521,10 +9291,8 @@
           <t>4590777357</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:40:25</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44335.98640046296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9600,10 +9368,8 @@
           <t>4590771251</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:38:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44335.98521990741</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9679,10 +9445,8 @@
           <t>4590761018</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:36:57</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44335.98399305555</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9750,10 +9514,8 @@
           <t>4590611324</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:10:12</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44335.96541666667</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9817,10 +9579,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-05-19 23:05:25</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44335.96209490741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9888,10 +9648,8 @@
           <t>4588564720</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:56:09</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44335.95565972223</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9960,10 +9718,8 @@
           <t>4588564720</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:49:28</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44335.95101851852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10035,10 +9791,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:43:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44335.94679398148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10114,10 +9868,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:37:07</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44335.94244212963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10193,10 +9945,8 @@
           <t>4590420143</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:36:02</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44335.94168981481</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10260,10 +10010,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:13:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44335.9262962963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10327,10 +10075,8 @@
           <t>4590231859</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-05-19 22:03:07</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44335.91883101852</v>
       </c>
       <c r="I136" t="n">
         <v>9</v>
@@ -10402,10 +10148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:56:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44335.91454861111</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10465,10 +10209,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:41:34</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44335.90386574074</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10532,10 +10274,8 @@
           <t>4590102795</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:39:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44335.90208333333</v>
       </c>
       <c r="I139" t="n">
         <v>10</v>
@@ -10595,10 +10335,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:34:15</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44335.89878472222</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10658,10 +10396,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:34:00</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44335.89861111111</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10721,10 +10457,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:33:27</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44335.89822916667</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10784,10 +10518,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:29:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44335.89575231481</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10855,10 +10587,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:29:08</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44335.89523148148</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10926,10 +10656,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:24:23</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44335.89193287037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10993,10 +10721,8 @@
           <t>4589984374</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:17:14</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44335.8869675926</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11060,10 +10786,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:15:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44335.88578703703</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11127,10 +10851,8 @@
           <t>4589976207</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:14:48</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44335.88527777778</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11194,10 +10916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-05-19 21:13:22</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44335.88428240741</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11261,10 +10981,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:56:33</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44335.87260416667</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11336,10 +11054,8 @@
           <t>4589857708</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:52:07</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44335.86952546296</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11417,10 +11133,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:49:25</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44335.86765046296</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11496,10 +11210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:25:11</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44335.85082175926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11571,10 +11283,8 @@
           <t>4589719420</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:24:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44335.85001157408</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11643,10 +11353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:18:14</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44335.84599537037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11716,10 +11424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:18:01</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44335.84584490741</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11783,10 +11489,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:02:44</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44335.83523148148</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11866,10 +11570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:01:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44335.83415509259</v>
       </c>
       <c r="I158" t="n">
         <v>404</v>
@@ -11929,10 +11631,8 @@
           <t>4588109977</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-05-19 20:00:36</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44335.83375</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12000,10 +11700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:55:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44335.83012731482</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12071,10 +11769,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:47:32</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44335.82467592593</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12138,10 +11834,8 @@
           <t>4588361522</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:47:25</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44335.8245949074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12213,10 +11907,8 @@
           <t>4589429588</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:28:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44335.81114583334</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12288,10 +11980,8 @@
           <t>4589437442</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:28:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44335.81111111111</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12355,10 +12045,8 @@
           <t>4589419602</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:26:01</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44335.8097337963</v>
       </c>
       <c r="I165" t="n">
         <v>4</v>
@@ -12418,10 +12106,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:20:24</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44335.80583333333</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12485,10 +12171,8 @@
           <t>4589377064</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:16:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44335.80304398148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12564,10 +12248,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:15:01</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44335.80209490741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12627,10 +12309,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:14:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44335.80199074074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12690,10 +12370,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:14:45</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44335.80190972222</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12753,10 +12431,8 @@
           <t>4589353837</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:13:18</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44335.80090277778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12832,10 +12508,8 @@
           <t>4589357374</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:12:50</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44335.8005787037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12911,10 +12585,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:07:11</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44335.79665509259</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12978,10 +12650,8 @@
           <t>4588564720</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-05-19 19:02:50</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44335.79363425926</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13049,10 +12719,8 @@
           <t>4588122364</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:58:06</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44335.79034722222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13128,10 +12796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:57:59</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44335.7902662037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13203,10 +12869,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:56:27</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44335.78920138889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13274,10 +12938,8 @@
           <t>4589190380</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:40:38</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44335.77821759259</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13353,10 +13015,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:38:39</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44335.77684027778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13420,10 +13080,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:38:02</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44335.77641203703</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13487,10 +13145,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:33:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44335.77322916667</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13554,10 +13210,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:28:56</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44335.77009259259</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13617,10 +13271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:28:55</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44335.77008101852</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13696,10 +13348,8 @@
           <t>4589068213</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:17:29</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44335.7621412037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13763,10 +13413,8 @@
           <t>4589041296</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:12:08</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44335.75842592592</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13843,10 +13491,8 @@
           <t>4589039161</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:12:01</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44335.75834490741</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13910,10 +13556,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:09:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44335.75682870371</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -13974,10 +13618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:09:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44335.75667824074</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14053,10 +13695,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:09:36</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44335.75666666667</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14132,10 +13772,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:09:15</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44335.75642361111</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14195,10 +13833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-05-19 18:06:35</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44335.75457175926</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14262,10 +13898,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:57:33</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44335.74829861111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14341,10 +13975,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:52:07</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44335.74452546296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14416,10 +14048,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:51:03</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44335.74378472222</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14487,10 +14117,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:50:15</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44335.74322916667</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14558,10 +14186,8 @@
           <t>4588928488</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:49:13</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44335.74251157408</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14629,10 +14255,8 @@
           <t>4588923390</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:48:32</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44335.74203703704</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -14704,10 +14328,8 @@
           <t>4588917829</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:46:22</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44335.74053240741</v>
       </c>
       <c r="I198" t="n">
         <v>4</v>
@@ -14767,10 +14389,8 @@
           <t>4588915521</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:44:47</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44335.73943287037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14830,10 +14450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:43:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44335.73878472222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14901,10 +14519,8 @@
           <t>4588900999</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:41:48</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44335.73736111111</v>
       </c>
       <c r="I201" t="n">
         <v>4</v>
@@ -14968,10 +14584,8 @@
           <t>4588896747</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:41:16</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44335.73699074074</v>
       </c>
       <c r="I202" t="n">
         <v>6</v>
@@ -15043,10 +14657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:39:52</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44335.73601851852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15110,10 +14722,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:37:32</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44335.73439814815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15181,10 +14791,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:36:08</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44335.73342592592</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15248,10 +14856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:33:29</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44335.73158564815</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15319,10 +14925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:33:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44335.73145833334</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15398,10 +15002,8 @@
           <t>4588856682</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:32:07</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44335.73063657407</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15473,10 +15075,8 @@
           <t>4588831995</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:27:38</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44335.72752314815</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15544,10 +15144,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:20:59</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44335.7229050926</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15615,10 +15213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:16:13</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44335.71959490741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15694,10 +15290,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:15:44</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44335.71925925926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15773,10 +15367,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:14:35</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44335.71846064815</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15854,10 +15446,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:14:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44335.71834490741</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15929,10 +15519,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:13:07</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44335.71744212963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16004,10 +15592,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:10:02</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44335.71530092593</v>
       </c>
       <c r="I216" t="n">
         <v>7</v>
@@ -16083,10 +15669,8 @@
           <t>4588754235</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:09:08</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44335.71467592593</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16158,10 +15742,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:07:42</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44335.71368055556</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16233,10 +15815,8 @@
           <t>4588743849</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:07:00</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44335.71319444444</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16300,10 +15880,8 @@
           <t>4588697833</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:05:46</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44335.71233796296</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16379,10 +15957,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:05:12</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44335.71194444445</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16446,10 +16022,8 @@
           <t>4588468885</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:05:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44335.71189814815</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16517,10 +16091,8 @@
           <t>4588726072</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:03:58</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44335.71108796296</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16596,10 +16168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:02:23</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44335.70998842592</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16667,10 +16237,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:01:42</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44335.70951388889</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16742,10 +16310,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:01:31</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44335.70938657408</v>
       </c>
       <c r="I226" t="n">
         <v>10</v>
@@ -16813,10 +16379,8 @@
           <t>4588320308</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:01:22</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44335.70928240741</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16884,10 +16448,8 @@
           <t>4588726072</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:01:06</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44335.70909722222</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16963,10 +16525,8 @@
           <t>4588719086</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-05-19 17:00:21</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44335.70857638889</v>
       </c>
       <c r="I229" t="n">
         <v>8</v>
@@ -17034,10 +16594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:59:42</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44335.708125</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17101,10 +16659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:59:08</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44335.70773148148</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17172,10 +16728,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:57:27</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44335.7065625</v>
       </c>
       <c r="I232" t="n">
         <v>7</v>
@@ -17239,10 +16793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:57:02</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44335.70627314815</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17310,10 +16862,8 @@
           <t>4588710694</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:56:53</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44335.70616898148</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17381,10 +16931,8 @@
           <t>4588707181</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:56:23</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44335.70582175926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17448,10 +16996,8 @@
           <t>4588468885</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:54:47</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44335.70471064815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17511,10 +17057,8 @@
           <t>4588697833</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:54:38</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44335.70460648148</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17574,10 +17118,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:51:22</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44335.70233796296</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17653,10 +17195,8 @@
           <t>4588686655</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:50:44</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44335.70189814815</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17728,10 +17268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:43:19</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44335.69674768519</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17799,10 +17337,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:42:19</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44335.69605324074</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -17874,10 +17410,8 @@
           <t>4588651370</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:41:36</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44335.69555555555</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17945,10 +17479,8 @@
           <t>4588650336</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:40:46</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44335.69497685185</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18020,10 +17552,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:40:05</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44335.69450231481</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18095,10 +17625,8 @@
           <t>4588629333</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:37:09</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44335.69246527777</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18162,10 +17690,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:35:34</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44335.69136574074</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18237,10 +17763,8 @@
           <t>4588320308</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:34:14</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44335.69043981482</v>
       </c>
       <c r="I247" t="n">
         <v>4</v>
@@ -18300,10 +17824,8 @@
           <t>4588618950</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:33:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44335.69020833333</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18375,10 +17897,8 @@
           <t>4588610425</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:30:06</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44335.68756944445</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18454,10 +17974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:29:12</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44335.68694444445</v>
       </c>
       <c r="I250" t="n">
         <v>892</v>
@@ -18534,10 +18052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:23:33</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44335.68302083333</v>
       </c>
       <c r="I251" t="n">
         <v>2</v>
@@ -18601,10 +18117,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:20:39</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44335.68100694445</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18670,10 +18184,8 @@
           <t>4588564720</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:19:54</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44335.68048611111</v>
       </c>
       <c r="I253" t="n">
         <v>12</v>
@@ -18745,10 +18257,8 @@
           <t>4588562609</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:18:13</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44335.67931712963</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -18820,10 +18330,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:15:15</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44335.67725694444</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18891,10 +18399,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:13:23</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44335.67596064815</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18958,10 +18464,8 @@
           <t>4588541312</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:11:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44335.67466435185</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19029,10 +18533,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:09:09</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44335.67302083333</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19096,10 +18598,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:08:05</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44335.67228009259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19175,10 +18675,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:06:52</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44335.67143518518</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19254,10 +18752,8 @@
           <t>4588517732</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:05:59</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44335.67082175926</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19326,10 +18822,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:03:28</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44335.66907407407</v>
       </c>
       <c r="I262" t="n">
         <v>16</v>
@@ -19405,10 +18899,8 @@
           <t>4588504267</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-05-19 16:03:04</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44335.6687962963</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19480,10 +18972,8 @@
           <t>4588497037</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:59:50</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44335.66655092593</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19551,10 +19041,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:56:34</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44335.66428240741</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19627,10 +19115,8 @@
           <t>4588482513</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:56:07</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44335.66396990741</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19706,10 +19192,8 @@
           <t>4588481725</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:55:28</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44335.66351851852</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -19777,10 +19261,8 @@
           <t>4588468885</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:53:08</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44335.66189814815</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -19848,10 +19330,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:50:56</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44335.66037037037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19927,10 +19407,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:50:17</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44335.65991898148</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19994,10 +19472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:46:57</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44335.65760416666</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20065,10 +19541,8 @@
           <t>4588108557</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:45:41</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44335.65672453704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20132,10 +19606,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:44:09</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44335.65565972222</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20211,10 +19683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:43:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44335.65530092592</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20282,10 +19752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:40:30</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44335.653125</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20345,10 +19813,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:40:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44335.65293981481</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20421,10 +19887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:39:12</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44335.65222222222</v>
       </c>
       <c r="I277" t="n">
         <v>394</v>
@@ -20496,10 +19960,8 @@
           <t>4588415768</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:37:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44335.65111111111</v>
       </c>
       <c r="I278" t="n">
         <v>58</v>
@@ -20563,10 +20025,8 @@
           <t>4588415054</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:37:02</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44335.65071759259</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20642,10 +20102,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:33:42</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44335.64840277778</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20721,10 +20179,8 @@
           <t>4588361522</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:32:53</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44335.64783564815</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20800,10 +20256,8 @@
           <t>4588388804</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:32:04</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44335.64726851852</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20871,10 +20325,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:30:51</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44335.64642361111</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -20946,10 +20398,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:30:16</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44335.64601851852</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21017,10 +20467,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:30:05</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44335.64589120371</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21096,10 +20544,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:29:30</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44335.64548611111</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21167,10 +20613,8 @@
           <t>4588361522</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:29:26</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44335.64543981481</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21246,10 +20690,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:29:20</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44335.64537037037</v>
       </c>
       <c r="I288" t="n">
         <v>4</v>
@@ -21321,10 +20763,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:26:55</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44335.64369212963</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21400,10 +20840,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:26:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44335.64324074074</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21475,10 +20913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:26:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44335.64318287037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21554,10 +20990,8 @@
           <t>4588320308</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:25:45</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44335.64288194444</v>
       </c>
       <c r="I292" t="n">
         <v>23</v>
@@ -21625,10 +21059,8 @@
           <t>4588357518</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:23:12</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44335.64111111111</v>
       </c>
       <c r="I293" t="n">
         <v>10</v>
@@ -21700,10 +21132,8 @@
           <t>4588361522</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:22:53</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44335.6408912037</v>
       </c>
       <c r="I294" t="n">
         <v>12</v>
@@ -21779,10 +21209,8 @@
           <t>4588354101</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:22:22</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44335.64053240741</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -21855,10 +21283,8 @@
           <t>4588241436</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:22:10</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44335.64039351852</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21922,10 +21348,8 @@
           <t>4588324878</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:21:20</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44335.63981481481</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -21997,10 +21421,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:19:20</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44335.63842592593</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22070,10 +21492,8 @@
           <t>4588347094</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:19:06</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44335.63826388889</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22145,10 +21565,8 @@
           <t>4588329831</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:16:43</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44335.6366087963</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22212,10 +21630,8 @@
           <t>4588329766</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:16:39</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44335.6365625</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22283,10 +21699,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:15:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44335.63607638889</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22362,10 +21776,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:15:25</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44335.63570601852</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22437,10 +21849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:14:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44335.63497685185</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22519,10 +21929,8 @@
           <t>4588324878</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:14:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44335.63490740741</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22594,10 +22002,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:12:55</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44335.63396990741</v>
       </c>
       <c r="I306" t="n">
         <v>10</v>
@@ -22673,10 +22079,8 @@
           <t>4588319470</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:12:25</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44335.63362268519</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22752,10 +22156,8 @@
           <t>4588321770</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:11:30</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44335.63298611111</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22827,10 +22229,8 @@
           <t>4588312785</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:10:22</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44335.63219907408</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22902,10 +22302,8 @@
           <t>4588320308</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:10:08</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44335.63203703704</v>
       </c>
       <c r="I310" t="n">
         <v>19</v>
@@ -22977,10 +22375,8 @@
           <t>4588308973</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:08:54</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44335.63118055555</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23052,10 +22448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:08:00</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44335.63055555556</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23119,10 +22513,8 @@
           <t>4588299499</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:07:18</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44335.63006944444</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23198,10 +22590,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:06:17</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44335.62936342593</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23283,10 +22673,8 @@
           <t>4588297794</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:05:43</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44335.6289699074</v>
       </c>
       <c r="I315" t="n">
         <v>14</v>
@@ -23358,10 +22746,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:05:36</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44335.62888888889</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23449,10 +22835,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:04:33</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44335.62815972222</v>
       </c>
       <c r="I317" t="n">
         <v>31</v>
@@ -23520,10 +22904,8 @@
           <t>4588300756</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:04:16</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44335.62796296296</v>
       </c>
       <c r="I318" t="n">
         <v>4</v>
@@ -23591,10 +22973,8 @@
           <t>4588165695</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:02:32</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44335.62675925926</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23664,10 +23044,8 @@
           <t>4588283670</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:01:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44335.62630787037</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23739,10 +23117,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:01:40</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44335.62615740741</v>
       </c>
       <c r="I321" t="n">
         <v>14</v>
@@ -23818,10 +23194,8 @@
           <t>4588291126</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:01:27</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44335.62600694445</v>
       </c>
       <c r="I322" t="n">
         <v>10</v>
@@ -23897,10 +23271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:01:24</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44335.62597222222</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23960,10 +23332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:01:08</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44335.62578703704</v>
       </c>
       <c r="I324" t="n">
         <v>30</v>
@@ -24027,10 +23397,8 @@
           <t>4588122364</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-05-19 15:00:29</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44335.62533564815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24106,10 +23474,8 @@
           <t>4588285840</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:59:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44335.62461805555</v>
       </c>
       <c r="I326" t="n">
         <v>5</v>
@@ -24173,10 +23539,8 @@
           <t>4588285431</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:59:02</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44335.62432870371</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24244,10 +23608,8 @@
           <t>4588261039</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:57:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44335.62334490741</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24311,10 +23673,8 @@
           <t>4588276917</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:57:23</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44335.62318287037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24382,10 +23742,8 @@
           <t>4588151547</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:57:03</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44335.62295138889</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24449,10 +23807,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:52</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44335.62282407407</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24528,10 +23884,8 @@
           <t>4588201064</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:25</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44335.62251157407</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24603,10 +23957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:20</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44335.62245370371</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24674,10 +24026,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:19</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44335.62244212963</v>
       </c>
       <c r="I334" t="n">
         <v>6</v>
@@ -24753,10 +24103,8 @@
           <t>4588267739</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:17</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44335.62241898148</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24820,10 +24168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:56:15</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44335.62239583334</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24895,10 +24241,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:55:33</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44335.62190972222</v>
       </c>
       <c r="I337" t="n">
         <v>4</v>
@@ -24974,10 +24318,8 @@
           <t>4588158060</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:54:59</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44335.6215162037</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25049,10 +24391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:54:08</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44335.62092592593</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25124,10 +24464,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:54:08</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44335.62092592593</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25200,10 +24538,8 @@
           <t>4588270264</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:54:07</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44335.62091435185</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25267,10 +24603,8 @@
           <t>4588255230</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:54:01</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44335.6208449074</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25346,10 +24680,8 @@
           <t>4588262617</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:53:22</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44335.62039351852</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25425,10 +24757,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:52:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44335.62001157407</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25492,10 +24822,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:52:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44335.6199537037</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25571,10 +24899,8 @@
           <t>4588258402</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:52:21</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44335.6196875</v>
       </c>
       <c r="I346" t="n">
         <v>27</v>
@@ -25647,10 +24973,8 @@
           <t>4588261039</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:51:55</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44335.61938657407</v>
       </c>
       <c r="I347" t="n">
         <v>10</v>
@@ -25726,10 +25050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:51:39</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44335.61920138889</v>
       </c>
       <c r="I348" t="n">
         <v>741</v>
@@ -25802,10 +25124,8 @@
           <t>4588256962</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:51:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44335.61877314815</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25873,10 +25193,8 @@
           <t>4588251003</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:50:03</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44335.61809027778</v>
       </c>
       <c r="I350" t="n">
         <v>6</v>
@@ -25944,10 +25262,8 @@
           <t>4588248568</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:49:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44335.61771990741</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26011,10 +25327,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:49:28</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44335.61768518519</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26082,10 +25396,8 @@
           <t>4588255153</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:49:23</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44335.61762731482</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26153,10 +25465,8 @@
           <t>4588244813</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:49:04</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44335.61740740741</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26220,10 +25530,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:49:01</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44335.61737268518</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26291,10 +25599,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:48:20</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44335.61689814815</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26362,10 +25668,8 @@
           <t>4588244005</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:48:19</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44335.61688657408</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26441,10 +25745,8 @@
           <t>4588243260</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:47:39</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44335.61642361111</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26508,10 +25810,8 @@
           <t>4588246047</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:47:10</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44335.61608796296</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26579,10 +25879,8 @@
           <t>4588165695</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:46:51</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44335.61586805555</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26650,10 +25948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:46:40</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44335.61574074074</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26729,10 +26025,8 @@
           <t>4588241436</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:45:57</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44335.61524305555</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -26804,10 +26098,8 @@
           <t>4588236362</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:45:39</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44335.61503472222</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26875,10 +26167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:44:45</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44335.61440972222</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26942,10 +26232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:44:44</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44335.61439814815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27013,10 +26301,8 @@
           <t>4588231458</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:42:46</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44335.6130324074</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27092,10 +26378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:42:33</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44335.61288194444</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27171,10 +26455,8 @@
           <t>4588227647</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:42:23</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44335.6127662037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27246,10 +26528,8 @@
           <t>4588222181</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:41:38</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44335.61224537037</v>
       </c>
       <c r="I369" t="n">
         <v>15</v>
@@ -27317,10 +26597,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:40:55</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44335.61174768519</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27384,10 +26662,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:40:54</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44335.61173611111</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27463,10 +26739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:40:07</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44335.61119212963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27542,10 +26816,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:39:27</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44335.61072916666</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27624,10 +26896,8 @@
           <t>4588214323</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:39:16</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44335.61060185185</v>
       </c>
       <c r="I374" t="n">
         <v>21</v>
@@ -27706,10 +26976,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:38:02</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44335.60974537037</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27785,10 +27053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:37:51</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44335.60961805555</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27848,10 +27114,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:37:28</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44335.60935185185</v>
       </c>
       <c r="I377" t="n">
         <v>8</v>
@@ -27927,10 +27191,8 @@
           <t>4588165695</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:36:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44335.60868055555</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -28006,10 +27268,8 @@
           <t>4588210952</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:36:08</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44335.60842592592</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28073,10 +27333,8 @@
           <t>4588199949</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:35:13</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44335.60778935185</v>
       </c>
       <c r="I380" t="n">
         <v>77</v>
@@ -28144,10 +27402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:35:11</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44335.60776620371</v>
       </c>
       <c r="I381" t="n">
         <v>7</v>
@@ -28215,10 +27471,8 @@
           <t>4588203377</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:35:05</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44335.60769675926</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28286,10 +27540,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:34:58</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44335.60761574074</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28365,10 +27617,8 @@
           <t>4588205130</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:34:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44335.60748842593</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28444,10 +27694,8 @@
           <t>4588194911</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:34:34</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44335.60733796296</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28511,10 +27759,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:34:26</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44335.60724537037</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28590,10 +27836,8 @@
           <t>4588194632</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:34:17</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44335.60714120371</v>
       </c>
       <c r="I387" t="n">
         <v>4</v>
@@ -28661,10 +27905,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:33:50</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44335.60682870371</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28728,10 +27970,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:33:45</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44335.60677083334</v>
       </c>
       <c r="I389" t="n">
         <v>5</v>
@@ -28796,10 +28036,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:33:11</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44335.60637731481</v>
       </c>
       <c r="I390" t="n">
         <v>6</v>
@@ -28867,10 +28105,8 @@
           <t>4588201064</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:32:55</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44335.60619212963</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28938,10 +28174,8 @@
           <t>4588108557</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:32:51</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44335.60614583334</v>
       </c>
       <c r="I392" t="n">
         <v>9</v>
@@ -29017,10 +28251,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:32:24</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44335.60583333333</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -29088,10 +28320,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:31:56</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44335.60550925926</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29159,10 +28389,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:31:54</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44335.60548611111</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29238,10 +28466,8 @@
           <t>4588108557</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:31:27</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44335.60517361111</v>
       </c>
       <c r="I396" t="n">
         <v>7</v>
@@ -29305,10 +28531,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:31:21</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44335.60510416667</v>
       </c>
       <c r="I397" t="n">
         <v>3</v>
@@ -29385,10 +28609,8 @@
           <t>4588190760</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:30:37</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44335.60459490741</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29456,10 +28678,8 @@
           <t>4588183848</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:29:34</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44335.60386574074</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -29523,10 +28743,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:29:25</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44335.60376157407</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29594,10 +28812,8 @@
           <t>4588151547</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:28:34</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44335.60317129629</v>
       </c>
       <c r="I401" t="n">
         <v>5</v>
@@ -29661,10 +28877,8 @@
           <t>4588152985</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:28:24</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44335.60305555556</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29732,10 +28946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:27:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44335.60232638889</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29803,10 +29015,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:27:12</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44335.60222222222</v>
       </c>
       <c r="I404" t="n">
         <v>6</v>
@@ -29870,10 +29080,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:25:54</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44335.60131944445</v>
       </c>
       <c r="I405" t="n">
         <v>12</v>
@@ -29949,10 +29157,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:25:43</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44335.60119212963</v>
       </c>
       <c r="I406" t="n">
         <v>17</v>
@@ -30020,10 +29226,8 @@
           <t>4588164412</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:24:40</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44335.60046296296</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30091,10 +29295,8 @@
           <t>4588152985</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:24:35</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44335.60040509259</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30166,10 +29368,8 @@
           <t>4588108322</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:24:28</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44335.60032407408</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30233,10 +29433,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:23:55</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44335.59994212963</v>
       </c>
       <c r="I410" t="n">
         <v>8</v>
@@ -30312,10 +29510,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:23:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44335.59989583334</v>
       </c>
       <c r="I411" t="n">
         <v>13</v>
@@ -30391,10 +29587,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:23:34</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44335.59969907408</v>
       </c>
       <c r="I412" t="n">
         <v>53</v>
@@ -30462,10 +29656,8 @@
           <t>4588170714</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:23:16</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44335.59949074074</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30533,10 +29725,8 @@
           <t>4588166842</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:23:16</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44335.59949074074</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30600,10 +29790,8 @@
           <t>4588162318</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:39</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44335.5990625</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30671,10 +29859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:28</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44335.59893518518</v>
       </c>
       <c r="I416" t="n">
         <v>57</v>
@@ -30750,10 +29936,8 @@
           <t>4588159811</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:24</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44335.59888888889</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30817,10 +30001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:20</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44335.59884259259</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30884,10 +30066,8 @@
           <t>4588165695</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:12</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44335.59875</v>
       </c>
       <c r="I419" t="n">
         <v>7</v>
@@ -30955,10 +30135,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:22:08</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44335.5987037037</v>
       </c>
       <c r="I420" t="n">
         <v>45</v>
@@ -31026,10 +30204,8 @@
           <t>4588159297</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44335.59856481481</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31097,10 +30273,8 @@
           <t>4588161475</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:52</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44335.59851851852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31164,10 +30338,8 @@
           <t>4588161454</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:51</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44335.59850694444</v>
       </c>
       <c r="I423" t="n">
         <v>9</v>
@@ -31235,10 +30407,8 @@
           <t>4588165276</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:50</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44335.59849537037</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31302,10 +30472,8 @@
           <t>4588159135</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:47</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44335.59846064815</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31382,10 +30550,8 @@
           <t>4588161201</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:37</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44335.5983449074</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31449,10 +30615,8 @@
           <t>4588161156</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:35</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44335.59832175926</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31520,10 +30684,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:16</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44335.59810185185</v>
       </c>
       <c r="I428" t="n">
         <v>88</v>
@@ -31591,10 +30753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:13</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44335.59806712963</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31654,10 +30814,8 @@
           <t>4588158406</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:07</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44335.59799768519</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31721,10 +30879,8 @@
           <t>4588160533</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:21:01</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44335.59792824074</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31788,10 +30944,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:20:51</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44335.5978125</v>
       </c>
       <c r="I432" t="n">
         <v>28</v>
@@ -31859,10 +31013,8 @@
           <t>4588158060</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:20:46</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44335.59775462963</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -31930,10 +31082,8 @@
           <t>4588153752</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:20:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44335.5975462963</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32005,10 +31155,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:20:18</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44335.59743055556</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32094,10 +31242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:20:04</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44335.59726851852</v>
       </c>
       <c r="I436" t="n">
         <v>742</v>
@@ -32169,10 +31315,8 @@
           <t>4588152985</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:19:47</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44335.59707175926</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32240,10 +31384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:19:44</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44335.59703703703</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32311,10 +31453,8 @@
           <t>4588152852</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:19:39</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44335.59697916666</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32382,10 +31522,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:19:11</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44335.5966550926</v>
       </c>
       <c r="I440" t="n">
         <v>15</v>
@@ -32453,10 +31591,8 @@
           <t>4588144341</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:19:11</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44335.5966550926</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32524,10 +31660,8 @@
           <t>4588130900</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:41</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44335.59630787037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32606,10 +31740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:30</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44335.59618055556</v>
       </c>
       <c r="I443" t="n">
         <v>5</v>
@@ -32669,10 +31801,8 @@
           <t>4588151547</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:26</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44335.59613425926</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32736,10 +31866,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:24</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44335.59611111111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32807,10 +31935,8 @@
           <t>4588155433</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:20</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44335.59606481482</v>
       </c>
       <c r="I446" t="n">
         <v>34</v>
@@ -32882,10 +32008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:04</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44335.59587962963</v>
       </c>
       <c r="I447" t="n">
         <v>19</v>
@@ -32953,10 +32077,8 @@
           <t>4588144341</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:18:03</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44335.59586805556</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33028,10 +32150,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:17:57</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44335.59579861111</v>
       </c>
       <c r="I449" t="n">
         <v>23</v>
@@ -33099,10 +32219,8 @@
           <t>4588150603</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:17:34</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44335.59553240741</v>
       </c>
       <c r="I450" t="n">
         <v>4</v>
@@ -33180,10 +32298,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:17:30</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44335.59548611111</v>
       </c>
       <c r="I451" t="n">
         <v>61</v>
@@ -33255,10 +32371,8 @@
           <t>4588144341</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:17:18</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44335.59534722222</v>
       </c>
       <c r="I452" t="n">
         <v>11</v>
@@ -33326,10 +32440,8 @@
           <t>4588143889</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:16:54</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44335.59506944445</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33405,10 +32517,8 @@
           <t>4588139797</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:16:50</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44335.59502314815</v>
       </c>
       <c r="I454" t="n">
         <v>24</v>
@@ -33480,10 +32590,8 @@
           <t>4588139432</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:16:30</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44335.59479166667</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33555,10 +32663,8 @@
           <t>4588130900</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:15:57</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44335.59440972222</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33630,10 +32736,8 @@
           <t>4588109977</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:15:48</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44335.59430555555</v>
       </c>
       <c r="I457" t="n">
         <v>5</v>
@@ -33701,10 +32805,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:15:21</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44335.59399305555</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33776,10 +32878,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:15:11</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44335.59387731482</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -33843,10 +32943,8 @@
           <t>4588133699</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:48</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44335.59361111111</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33914,10 +33012,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:41</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44335.59353009259</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33981,10 +33077,8 @@
           <t>4588141431</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:40</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44335.59351851852</v>
       </c>
       <c r="I462" t="n">
         <v>129</v>
@@ -34053,10 +33147,8 @@
           <t>4588133330</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:29</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44335.59339120371</v>
       </c>
       <c r="I463" t="n">
         <v>121</v>
@@ -34132,10 +33224,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:28</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44335.59337962963</v>
       </c>
       <c r="I464" t="n">
         <v>36</v>
@@ -34199,10 +33289,8 @@
           <t>4588109977</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:03</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44335.59309027778</v>
       </c>
       <c r="I465" t="n">
         <v>9</v>
@@ -34270,10 +33358,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:14:00</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44335.59305555555</v>
       </c>
       <c r="I466" t="n">
         <v>7</v>
@@ -34341,10 +33427,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:13:52</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44335.59296296296</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34408,10 +33492,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:13:28</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44335.59268518518</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34483,10 +33565,8 @@
           <t>4588129690</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:13:07</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44335.59244212963</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34563,10 +33643,8 @@
           <t>4588131468</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:12:43</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44335.59216435185</v>
       </c>
       <c r="I470" t="n">
         <v>7</v>
@@ -34630,10 +33708,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:12:37</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44335.59209490741</v>
       </c>
       <c r="I471" t="n">
         <v>15</v>
@@ -34709,10 +33785,8 @@
           <t>4588131173</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:12:27</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44335.59197916667</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34780,10 +33854,8 @@
           <t>4588130900</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:12:11</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44335.59179398148</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34852,10 +33924,8 @@
           <t>4588130685</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:58</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44335.59164351852</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34923,10 +33993,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:50</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44335.59155092593</v>
       </c>
       <c r="I475" t="n">
         <v>11</v>
@@ -35002,10 +34070,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:30</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44335.59131944444</v>
       </c>
       <c r="I476" t="n">
         <v>230</v>
@@ -35081,10 +34147,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:27</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44335.59128472222</v>
       </c>
       <c r="I477" t="n">
         <v>7</v>
@@ -35160,10 +34224,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:26</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44335.59127314815</v>
       </c>
       <c r="I478" t="n">
         <v>28</v>
@@ -35239,10 +34301,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:22</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44335.59122685185</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -35311,10 +34371,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:15</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44335.59114583334</v>
       </c>
       <c r="I480" t="n">
         <v>37</v>
@@ -35378,10 +34436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:11:09</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44335.59107638889</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35457,10 +34513,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:55</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44335.59091435185</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35532,10 +34586,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:55</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44335.59091435185</v>
       </c>
       <c r="I483" t="n">
         <v>40</v>
@@ -35611,10 +34663,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:46</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44335.59081018518</v>
       </c>
       <c r="I484" t="n">
         <v>9</v>
@@ -35690,10 +34740,8 @@
           <t>4588126704</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:24</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44335.59055555556</v>
       </c>
       <c r="I485" t="n">
         <v>6</v>
@@ -35757,10 +34805,8 @@
           <t>4588122364</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:07</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44335.5903587963</v>
       </c>
       <c r="I486" t="n">
         <v>51</v>
@@ -35828,10 +34874,8 @@
           <t>4588126368</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:06</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44335.59034722222</v>
       </c>
       <c r="I487" t="n">
         <v>4</v>
@@ -35899,10 +34943,8 @@
           <t>4588122252</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:10:00</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44335.59027777778</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35978,10 +35020,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:09:54</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44335.59020833333</v>
       </c>
       <c r="I489" t="n">
         <v>128</v>
@@ -36057,10 +35097,8 @@
           <t>4588108322</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:09:52</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44335.59018518519</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36132,10 +35170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:09:35</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44335.58998842593</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36203,10 +35239,8 @@
           <t>4588121700</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:09:30</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44335.58993055556</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36270,10 +35304,8 @@
           <t>4588117767</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:09:18</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44335.58979166667</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36345,10 +35377,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:56</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44335.58953703703</v>
       </c>
       <c r="I494" t="n">
         <v>99</v>
@@ -36408,10 +35438,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:56</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44335.58953703703</v>
       </c>
       <c r="I495" t="n">
         <v>8</v>
@@ -36479,10 +35507,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:44</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44335.58939814815</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36554,10 +35580,8 @@
           <t>4588120281</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:15</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44335.5890625</v>
       </c>
       <c r="I497" t="n">
         <v>9</v>
@@ -36621,10 +35645,8 @@
           <t>4588116528</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:13</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44335.58903935185</v>
       </c>
       <c r="I498" t="n">
         <v>51</v>
@@ -36692,10 +35714,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:08:05</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44335.58894675926</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36767,10 +35787,8 @@
           <t>4588109977</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:07:57</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44335.58885416666</v>
       </c>
       <c r="I500" t="n">
         <v>6</v>
@@ -36838,10 +35856,8 @@
           <t>4588113697</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:07:42</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44335.58868055556</v>
       </c>
       <c r="I501" t="n">
         <v>121</v>
@@ -36905,10 +35921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:07:20</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44335.58842592593</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -36984,10 +35998,8 @@
           <t>4588115189</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:07:00</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44335.58819444444</v>
       </c>
       <c r="I503" t="n">
         <v>11</v>
@@ -37051,10 +36063,8 @@
           <t>4588112564</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:43</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44335.58799768519</v>
       </c>
       <c r="I504" t="n">
         <v>44</v>
@@ -37118,10 +36128,8 @@
           <t>4588108557</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:41</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44335.58797453704</v>
       </c>
       <c r="I505" t="n">
         <v>32</v>
@@ -37197,10 +36205,8 @@
           <t>4588112325</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:31</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44335.58785879629</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37272,10 +36278,8 @@
           <t>4588108322</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:29</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44335.58783564815</v>
       </c>
       <c r="I507" t="n">
         <v>6</v>
@@ -37348,10 +36352,8 @@
           <t>4588104560</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:28</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44335.58782407407</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37419,10 +36421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:16</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44335.58768518519</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37486,10 +36486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44335.58766203704</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37565,10 +36563,8 @@
           <t>4588111930</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:10</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44335.58761574074</v>
       </c>
       <c r="I511" t="n">
         <v>33</v>
@@ -37640,10 +36636,8 @@
           <t>4588104196</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:10</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44335.58761574074</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37719,10 +36713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:06:05</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44335.58755787037</v>
       </c>
       <c r="I513" t="n">
         <v>40</v>
@@ -37786,10 +36778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:51</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44335.58739583333</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37861,10 +36851,8 @@
           <t>4588103807</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:50</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44335.58738425926</v>
       </c>
       <c r="I515" t="n">
         <v>309</v>
@@ -37940,10 +36928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:47</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44335.58734953704</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38003,10 +36989,8 @@
           <t>4588103524</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:34</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44335.58719907407</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38078,10 +37062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:31</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44335.58716435185</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38149,10 +37131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:30</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44335.58715277778</v>
       </c>
       <c r="I519" t="n">
         <v>1324</v>
@@ -38228,10 +37208,8 @@
           <t>4588103238</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:19</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44335.58702546296</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38303,10 +37281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:18</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44335.58701388889</v>
       </c>
       <c r="I521" t="n">
         <v>2</v>
@@ -38370,10 +37346,8 @@
           <t>4588103141</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:14</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44335.58696759259</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38441,10 +37415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:11</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44335.58693287037</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38504,10 +37476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:07</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44335.58688657408</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38583,10 +37553,8 @@
           <t>4588110014</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:05</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44335.58686342592</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38650,10 +37618,8 @@
           <t>4588110589</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:05:00</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44335.58680555555</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38721,10 +37687,8 @@
           <t>4588106517</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:57</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44335.58677083333</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38797,10 +37761,8 @@
           <t>4588106466</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:55</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44335.58674768519</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38876,10 +37838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:54</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44335.58673611111</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38951,10 +37911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:52</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44335.58671296296</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39030,10 +37988,8 @@
           <t>4588106414</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:51</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44335.58670138889</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39106,10 +38062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:50</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44335.58668981482</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39183,10 +38137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:44</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44335.58662037037</v>
       </c>
       <c r="I533" t="n">
         <v>3</v>
@@ -39258,10 +38210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:43</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44335.58660879629</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39337,10 +38287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:41</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44335.58658564815</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39412,10 +38360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:40</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44335.58657407408</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39491,10 +38437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:40</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44335.58657407408</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39562,10 +38506,8 @@
           <t>4588098844</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:40</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44335.58657407408</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39637,10 +38579,8 @@
           <t>4588102509</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:39</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44335.5865625</v>
       </c>
       <c r="I539" t="n">
         <v>4</v>
@@ -39700,10 +38640,8 @@
           <t>4588110189</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:38</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44335.58655092592</v>
       </c>
       <c r="I540" t="n">
         <v>78</v>
@@ -39779,10 +38717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:37</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44335.58653935185</v>
       </c>
       <c r="I541" t="n">
         <v>42</v>
@@ -39857,10 +38793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:34</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44335.58650462963</v>
       </c>
       <c r="I542" t="n">
         <v>104</v>
@@ -39937,10 +38871,8 @@
           <t>4588106110</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:34</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44335.58650462963</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40008,10 +38940,8 @@
           <t>4588110014</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:29</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44335.58644675926</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40079,10 +39009,8 @@
           <t>4588105991</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:28</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44335.58643518519</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40150,10 +39078,8 @@
           <t>4588102317</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:28</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44335.58643518519</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40225,10 +39151,8 @@
           <t>4588105984</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:28</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44335.58643518519</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40292,10 +39216,8 @@
           <t>4588102303</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:27</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44335.58642361111</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40363,10 +39285,8 @@
           <t>4588099970</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:26</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44335.58641203704</v>
       </c>
       <c r="I549" t="n">
         <v>5</v>
@@ -40442,10 +39362,8 @@
           <t>4588105881</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:22</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44335.58636574074</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40521,10 +39439,8 @@
           <t>4588102131</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:18</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44335.58631944445</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40584,10 +39500,8 @@
           <t>4588099684</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:11</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44335.58623842592</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40660,10 +39574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:08</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44335.5862037037</v>
       </c>
       <c r="I553" t="n">
         <v>4</v>
@@ -40731,10 +39643,8 @@
           <t>4588101914</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:07</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44335.58619212963</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40810,10 +39720,8 @@
           <t>4588099560</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:05</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44335.58616898148</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40877,10 +39785,8 @@
           <t>4588105480</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:04:02</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44335.58613425926</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40952,10 +39858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:56</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44335.58606481482</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41019,10 +39923,8 @@
           <t>4588101699</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:55</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44335.58605324074</v>
       </c>
       <c r="I558" t="n">
         <v>52</v>
@@ -41098,10 +40000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:52</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44335.58601851852</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41169,10 +40069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:50</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44335.58599537037</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41244,10 +40142,8 @@
           <t>4588101574</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:49</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44335.5859837963</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41311,10 +40207,8 @@
           <t>4588105214</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:48</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44335.58597222222</v>
       </c>
       <c r="I562" t="n">
         <v>10</v>
@@ -41390,10 +40284,8 @@
           <t>4588099249</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:48</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44335.58597222222</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41465,10 +40357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:47</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44335.58596064815</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41532,10 +40422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:47</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44335.58596064815</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41603,10 +40491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:43</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44335.58591435185</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41666,10 +40552,8 @@
           <t>4588099102</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:40</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44335.58587962963</v>
       </c>
       <c r="I567" t="n">
         <v>10</v>
@@ -41729,10 +40613,8 @@
           <t>4588099082</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:38</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44335.58585648148</v>
       </c>
       <c r="I568" t="n">
         <v>153</v>
@@ -41809,10 +40691,8 @@
           <t>4588101301</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:35</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44335.58582175926</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41889,10 +40769,8 @@
           <t>4588098987</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:34</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44335.58581018518</v>
       </c>
       <c r="I570" t="n">
         <v>2</v>
@@ -41964,10 +40842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:33</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44335.58579861111</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42039,10 +40915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:29</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44335.58575231482</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42118,10 +40992,8 @@
           <t>4588098844</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:27</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44335.58572916667</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42181,10 +41053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:24</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44335.58569444445</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42252,10 +41122,8 @@
           <t>4588100947</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:15</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44335.58559027778</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42320,10 +41188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:11</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44335.58554398148</v>
       </c>
       <c r="I576" t="n">
         <v>4</v>
@@ -42399,10 +41265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:03:08</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44335.58550925926</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42466,10 +41330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:59</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44335.58540509259</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42541,10 +41403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:58</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44335.58539351852</v>
       </c>
       <c r="I579" t="n">
         <v>823</v>
@@ -42612,10 +41472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:54</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44335.58534722222</v>
       </c>
       <c r="I580" t="n">
         <v>1082</v>
@@ -42687,10 +41545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:53</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44335.58533564815</v>
       </c>
       <c r="I581" t="n">
         <v>3</v>
@@ -42754,10 +41610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:51</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44335.5853125</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42833,10 +41687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:49</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44335.58528935185</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42908,10 +41760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:48</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44335.58527777778</v>
       </c>
       <c r="I584" t="n">
         <v>20</v>
@@ -42976,10 +41826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:44</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44335.58523148148</v>
       </c>
       <c r="I585" t="n">
         <v>75</v>
@@ -43053,10 +41901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:43</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44335.58521990741</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43124,10 +41970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:38</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44335.58516203704</v>
       </c>
       <c r="I587" t="n">
         <v>10</v>
@@ -43203,10 +42047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:36</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44335.58513888889</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43278,10 +42120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:34</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44335.58511574074</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43349,10 +42189,8 @@
           <t>4588089973</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:23</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44335.58498842592</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43428,10 +42266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:19</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44335.58494212963</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43495,10 +42331,8 @@
           <t>4588093455</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:15</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44335.58489583333</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43562,10 +42396,8 @@
           <t>4588089831</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:15</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44335.58489583333</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43643,10 +42475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:11</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44335.58484953704</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43718,10 +42548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:10</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44335.58483796296</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43789,10 +42617,8 @@
           <t>4588089693</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:08</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44335.58481481481</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43856,10 +42682,8 @@
           <t>4588093313</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:08</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44335.58481481481</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -43923,10 +42747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:07</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44335.58480324074</v>
       </c>
       <c r="I598" t="n">
         <v>4</v>
@@ -44002,10 +42824,8 @@
           <t>4588089649</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:05</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44335.58478009259</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44073,10 +42893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:04</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44335.58476851852</v>
       </c>
       <c r="I600" t="n">
         <v>4</v>
@@ -44153,10 +42971,8 @@
           <t>4588097273</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:04</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44335.58476851852</v>
       </c>
       <c r="I601" t="n">
         <v>3</v>
@@ -44224,10 +43040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:02:00</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44335.58472222222</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44295,10 +43109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:59</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44335.58471064815</v>
       </c>
       <c r="I603" t="n">
         <v>191</v>
@@ -44366,10 +43178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:54</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44335.58465277778</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44437,10 +43247,8 @@
           <t>4588089403</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:52</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44335.58462962963</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44512,10 +43320,8 @@
           <t>4588097061</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:51</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44335.58461805555</v>
       </c>
       <c r="I606" t="n">
         <v>2</v>
@@ -44588,10 +43394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:49</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44335.58459490741</v>
       </c>
       <c r="I607" t="n">
         <v>33</v>
@@ -44655,10 +43459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:48</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44335.58458333334</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44722,10 +43524,8 @@
           <t>4588089319</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:48</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44335.58458333334</v>
       </c>
       <c r="I609" t="n">
         <v>11</v>
@@ -44801,10 +43601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:38</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44335.58446759259</v>
       </c>
       <c r="I610" t="n">
         <v>2</v>
@@ -44876,10 +43674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:32</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44335.58439814814</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44947,10 +43743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:27</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44335.58434027778</v>
       </c>
       <c r="I612" t="n">
         <v>2</v>
@@ -45014,10 +43808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:27</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44335.58434027778</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45077,10 +43869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:26</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44335.58432870371</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45152,10 +43942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:25</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44335.58431712963</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45231,10 +44019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:21</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44335.58427083334</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45302,10 +44088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:20</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44335.58425925926</v>
       </c>
       <c r="I617" t="n">
         <v>247</v>
@@ -45373,10 +44157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:18</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44335.58423611111</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45452,10 +44234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:18</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44335.58423611111</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45523,10 +44303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:18</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44335.58423611111</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45590,10 +44368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:16</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44335.58421296296</v>
       </c>
       <c r="I621" t="n">
         <v>160</v>
@@ -45657,10 +44433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:16</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44335.58421296296</v>
       </c>
       <c r="I622" t="n">
         <v>3</v>
@@ -45728,10 +44502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:13</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44335.58417824074</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45799,10 +44571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:06</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44335.58409722222</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45866,10 +44636,8 @@
           <t>4588088503</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:04</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44335.58407407408</v>
       </c>
       <c r="I625" t="n">
         <v>3</v>
@@ -45941,10 +44709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:03</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44335.5840625</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46020,10 +44786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:01:01</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44335.58403935185</v>
       </c>
       <c r="I627" t="n">
         <v>28</v>
@@ -46087,10 +44851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:56</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44335.58398148148</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46162,10 +44924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:51</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44335.58392361111</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46233,10 +44993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:50</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44335.58391203704</v>
       </c>
       <c r="I630" t="n">
         <v>25</v>
@@ -46308,10 +45066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:50</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44335.58391203704</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46387,10 +45143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:50</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44335.58391203704</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46454,10 +45208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:47</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44335.58387731481</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -46529,10 +45281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:46</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44335.58386574074</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46600,10 +45350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:46</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44335.58386574074</v>
       </c>
       <c r="I635" t="n">
         <v>7</v>
@@ -46667,10 +45415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:45</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44335.58385416667</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46738,10 +45484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:45</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44335.58385416667</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46817,10 +45561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:39</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44335.58378472222</v>
       </c>
       <c r="I638" t="n">
         <v>2</v>
@@ -46888,10 +45630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:36</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44335.58375</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -46959,10 +45699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:36</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44335.58375</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47030,10 +45768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:34</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44335.58372685185</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47105,10 +45841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:32</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44335.58370370371</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47172,10 +45906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:32</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44335.58370370371</v>
       </c>
       <c r="I643" t="n">
         <v>876</v>
@@ -47247,10 +45979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:30</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44335.58368055556</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47318,10 +46048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:29</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44335.58366898148</v>
       </c>
       <c r="I645" t="n">
         <v>85</v>
@@ -47397,10 +46125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:28</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44335.58365740741</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47472,10 +46198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:27</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44335.58364583334</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47548,10 +46272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:25</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44335.58362268518</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47615,10 +46337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:25</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44335.58362268518</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47678,10 +46398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:23</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44335.58359953704</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47757,10 +46475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:23</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44335.58359953704</v>
       </c>
       <c r="I651" t="n">
         <v>3410</v>
@@ -47836,10 +46552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:22</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44335.58358796296</v>
       </c>
       <c r="I652" t="n">
         <v>1</v>
@@ -47915,10 +46629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:21</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44335.58357638889</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -47990,10 +46702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:19</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44335.58355324074</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48065,10 +46775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:13</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44335.5834837963</v>
       </c>
       <c r="I655" t="n">
         <v>9</v>
@@ -48145,10 +46853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-05-19 14:00:11</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44335.58346064815</v>
       </c>
       <c r="I656" t="n">
         <v>1</v>
